--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147251.4082550441</v>
+        <v>25481635.26645375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147251.4082550441</v>
+        <v>25481635.26645375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68213.36555995089</v>
+        <v>9142200.272209052</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75731.50293299177</v>
+        <v>9946732.43574558</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1596979208.126919</v>
+        <v>53848628.59377177</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12110.50621588715</v>
+        <v>1126215.012096383</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24221.01243177432</v>
+        <v>2252430.024192766</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36319.65242196921</v>
+        <v>3380363.395201906</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49677.16781880756</v>
+        <v>4331315.506783791</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61775.80780900244</v>
+        <v>5459248.877792934</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73810.31103573975</v>
+        <v>6596307.730420738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85844.81426247706</v>
+        <v>7733366.583048539</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97879.31748921436</v>
+        <v>8870425.435676338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111801.3128860527</v>
+        <v>9745239.947258214</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123631.5725581541</v>
+        <v>10911467.79650141</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135072.3717535777</v>
+        <v>12134809.61076488</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>146513.1709490012</v>
+        <v>13358151.42502836</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157953.9701444248</v>
+        <v>14581493.23929183</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>171893.8242662597</v>
+        <v>15453915.32737394</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185136.0250016303</v>
+        <v>15995464.27091057</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
